--- a/model_info.xlsx
+++ b/model_info.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75c3b8d6ea9b1baa/Documents/UICOM Research/ECG Segmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="8_{3BD69805-DE0B-4764-B404-643E4AC26296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1A6BDC7-580B-45A1-9E7E-BE61CCECD97D}"/>
+  <xr:revisionPtr revIDLastSave="334" documentId="8_{3BD69805-DE0B-4764-B404-643E4AC26296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C53FE0-2383-4434-A24C-B6404B6D728A}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{436FFA5E-43D2-450E-8103-578D464242C6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Models" sheetId="1" r:id="rId1"/>
+    <sheet name="Variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Model</t>
   </si>
@@ -141,13 +142,68 @@
   </si>
   <si>
     <t>Sensitivity on All, post BP filter</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>spectro_i</t>
+  </si>
+  <si>
+    <t>spectro_filt_i</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Filter for </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>training</t>
+    </r>
+  </si>
+  <si>
+    <t>samples12</t>
+  </si>
+  <si>
+    <t>samples_full12</t>
+  </si>
+  <si>
+    <t>Whole sequence</t>
+  </si>
+  <si>
+    <t>Annotated sequence</t>
+  </si>
+  <si>
+    <t>samples_bp_full12</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>0.5, 40</t>
+  </si>
+  <si>
+    <t>samples_bp12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +225,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -178,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -193,19 +257,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -219,6 +270,60 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -227,15 +332,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,6 +361,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -570,83 +684,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA9E0E-1A08-47B8-82F2-497204D38952}">
-  <dimension ref="A1:AC19"/>
+  <dimension ref="A1:AC22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="X2" sqref="X2"/>
+      <selection pane="topRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5" t="s">
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="R1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5" t="s">
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5" t="s">
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
       <c r="F2">
         <v>0</v>
       </c>
@@ -662,7 +776,7 @@
       <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="9"/>
       <c r="L2">
         <v>0</v>
       </c>
@@ -678,7 +792,7 @@
       <c r="P2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="9"/>
       <c r="R2">
         <v>0</v>
       </c>
@@ -694,7 +808,7 @@
       <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="5"/>
+      <c r="W2" s="9"/>
       <c r="X2">
         <v>0</v>
       </c>
@@ -710,7 +824,7 @@
       <c r="AB2" t="s">
         <v>15</v>
       </c>
-      <c r="AC2" s="5"/>
+      <c r="AC2" s="9"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -822,55 +936,64 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:29" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="1">
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4">
         <v>96</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="5">
         <v>51</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="5">
         <v>70</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="5">
         <v>80</v>
       </c>
-      <c r="L8">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>96</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="7">
         <v>59</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="6">
         <v>71</v>
       </c>
-      <c r="O8" s="4">
+      <c r="O8" s="8">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="2">
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
         <v>97</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>50</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>64</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>63</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="3">
         <v>97</v>
       </c>
-      <c r="M9" s="4">
+      <c r="M9" s="3">
         <v>60</v>
       </c>
       <c r="N9">
@@ -884,16 +1007,19 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="2">
+      <c r="E10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="1">
         <v>93</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>36</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>55</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>21</v>
       </c>
       <c r="L10">
@@ -913,16 +1039,19 @@
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="2">
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="1">
         <v>87</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>6</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>57</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>3</v>
       </c>
       <c r="L11">
@@ -942,16 +1071,19 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="2">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="1">
         <v>94</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>28</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>62</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>51</v>
       </c>
       <c r="L12">
@@ -971,16 +1103,19 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="2">
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="1">
         <v>95</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>49</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>38</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>53</v>
       </c>
       <c r="L13">
@@ -1000,16 +1135,19 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="2">
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1">
         <v>90</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>55</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>17</v>
       </c>
       <c r="L14">
@@ -1029,16 +1167,19 @@
       <c r="A15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="2">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1">
         <v>93</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>18</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>69</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>50</v>
       </c>
       <c r="L15">
@@ -1054,20 +1195,23 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="2">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="1">
         <v>95</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>19</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>73</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>71</v>
       </c>
       <c r="L16">
@@ -1076,56 +1220,64 @@
       <c r="M16">
         <v>23</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="3">
         <v>74</v>
       </c>
       <c r="O16">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="2">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="4">
         <v>95</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="5">
         <v>27</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>72</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>75</v>
       </c>
-      <c r="L17">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
         <v>96</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="6">
         <v>31</v>
       </c>
-      <c r="N17" s="4">
+      <c r="N17" s="7">
         <v>75</v>
       </c>
-      <c r="O17" s="4">
+      <c r="O17" s="8">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="2">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1">
         <v>96</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="1">
         <v>34</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="1">
         <v>66</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="1">
         <v>74</v>
       </c>
       <c r="L18">
@@ -1137,7 +1289,7 @@
       <c r="N18">
         <v>70</v>
       </c>
-      <c r="O18" s="4">
+      <c r="O18" s="3">
         <v>82</v>
       </c>
     </row>
@@ -1145,16 +1297,19 @@
       <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2">
         <v>96</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>41</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>64</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>71</v>
       </c>
       <c r="L19">
@@ -1170,14 +1325,57 @@
         <v>81</v>
       </c>
     </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21">
+        <v>97</v>
+      </c>
+      <c r="M21">
+        <v>67</v>
+      </c>
+      <c r="N21">
+        <v>85</v>
+      </c>
+      <c r="O21">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="10">
+        <v>96</v>
+      </c>
+      <c r="G22" s="10">
+        <v>72</v>
+      </c>
+      <c r="H22" s="10">
+        <v>88</v>
+      </c>
+      <c r="I22" s="10">
+        <v>82</v>
+      </c>
+      <c r="L22">
+        <v>96</v>
+      </c>
+      <c r="M22">
+        <v>74</v>
+      </c>
+      <c r="N22">
+        <v>90</v>
+      </c>
+      <c r="O22">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="L1:P1"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="X1:AB1"/>
@@ -1185,9 +1383,15 @@
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="W1:W2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F8:F19">
+  <conditionalFormatting sqref="F8:F19 L21 F22">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1209,7 +1413,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G19 M8:M19">
+  <conditionalFormatting sqref="G8:G19 M8:M19 G22 M21:M22 N22:O22">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1221,7 +1425,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G19">
+  <conditionalFormatting sqref="G8:G19 G22">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1243,7 +1447,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H19 N8:N19">
+  <conditionalFormatting sqref="H8:H19 N8:N19 H22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1255,7 +1459,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H19">
+  <conditionalFormatting sqref="H8:H19 H22">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1277,7 +1481,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I19 O8:O19">
+  <conditionalFormatting sqref="I8:I19 O8:O19 I22">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -1289,7 +1493,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I19">
+  <conditionalFormatting sqref="I8:I19 I22">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1301,7 +1505,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I20">
+  <conditionalFormatting sqref="I8:I20 I22">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -1313,7 +1517,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L19 F8:F19">
+  <conditionalFormatting sqref="L8:L19 F8:F19 F22 L21:L22">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -1328,4 +1532,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEFB33AB-9487-4A72-9A84-9D00CFF51996}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/model_info.xlsx
+++ b/model_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/75c3b8d6ea9b1baa/Documents/UICOM Research/ECG Segmentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="334" documentId="8_{3BD69805-DE0B-4764-B404-643E4AC26296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5C53FE0-2383-4434-A24C-B6404B6D728A}"/>
+  <xr:revisionPtr revIDLastSave="417" documentId="8_{3BD69805-DE0B-4764-B404-643E4AC26296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75110D40-7E42-42E8-A4E7-D50614A683D8}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{436FFA5E-43D2-450E-8103-578D464242C6}"/>
+    <workbookView minimized="1" xWindow="4080" yWindow="1070" windowWidth="19200" windowHeight="11710" xr2:uid="{436FFA5E-43D2-450E-8103-578D464242C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>Model</t>
   </si>
@@ -197,6 +197,18 @@
   </si>
   <si>
     <t>samples_bp12</t>
+  </si>
+  <si>
+    <t>spectro_v6</t>
+  </si>
+  <si>
+    <t>spectro_ii</t>
+  </si>
+  <si>
+    <t>spectro_bilstm_i</t>
+  </si>
+  <si>
+    <t>200 LSTM, bidirectional</t>
   </si>
 </sst>
 </file>
@@ -332,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -345,7 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,17 +695,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEBA9E0E-1A08-47B8-82F2-497204D38952}">
-  <dimension ref="A1:AC22"/>
+  <dimension ref="A1:AC26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="L22" sqref="L22"/>
+      <selection pane="topRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.90625" customWidth="1"/>
     <col min="5" max="5" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1349,29 +1360,131 @@
       <c r="A22" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="10">
-        <v>96</v>
-      </c>
-      <c r="G22" s="10">
-        <v>72</v>
-      </c>
-      <c r="H22" s="10">
-        <v>88</v>
-      </c>
-      <c r="I22" s="10">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <v>97</v>
+      </c>
+      <c r="G22">
+        <v>75</v>
+      </c>
+      <c r="H22">
+        <v>90</v>
+      </c>
+      <c r="I22">
         <v>82</v>
       </c>
       <c r="L22">
         <v>96</v>
       </c>
       <c r="M22">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="N22">
+        <v>92</v>
+      </c>
+      <c r="O22">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>80</v>
+      </c>
+      <c r="H23">
+        <v>88</v>
+      </c>
+      <c r="I23">
+        <v>80</v>
+      </c>
+      <c r="L23">
+        <v>94</v>
+      </c>
+      <c r="M23">
+        <v>88</v>
+      </c>
+      <c r="N23">
+        <v>92</v>
+      </c>
+      <c r="O23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>95</v>
+      </c>
+      <c r="G24">
+        <v>77</v>
+      </c>
+      <c r="H24">
+        <v>87</v>
+      </c>
+      <c r="I24">
+        <v>93</v>
+      </c>
+      <c r="L24">
+        <v>94</v>
+      </c>
+      <c r="M24">
+        <v>82</v>
+      </c>
+      <c r="N24">
+        <v>89</v>
+      </c>
+      <c r="O24">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>96</v>
+      </c>
+      <c r="G26">
+        <v>81</v>
+      </c>
+      <c r="H26">
+        <v>88</v>
+      </c>
+      <c r="I26">
+        <v>86</v>
+      </c>
+      <c r="L26">
+        <v>96</v>
+      </c>
+      <c r="M26">
+        <v>83</v>
+      </c>
+      <c r="N26">
         <v>90</v>
       </c>
-      <c r="O22">
-        <v>84</v>
+      <c r="O26">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1391,7 +1504,63 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F8:F19 L21 F22">
+  <conditionalFormatting sqref="F8:F19 L21 F22:F23">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G19 G22:G23">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8:G19 M8:M19 G22:G23 G24:I24 M21:M24 N22:O24 G26:I26 M26:O26">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H19 H22:H23">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1413,7 +1582,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G19 M8:M19 G22 M21:M22 N22:O22">
+  <conditionalFormatting sqref="H8:H19 N8:N19 H22:H23">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I19 I22:I23">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:I19 O8:O19 I22:I23">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -1425,17 +1618,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G19 G22">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
+  <conditionalFormatting sqref="I8:I20 I22:I23">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -1447,7 +1630,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H19 N8:N19 H22">
+  <conditionalFormatting sqref="L8:L19 F8:F19 F22:F24 L21:L24 L26">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N24 H8:H24 H26 N26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -1459,66 +1654,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H8:H19 H22">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I19 O8:O19 I22">
+  <conditionalFormatting sqref="O8:O24 I8:I24 I26 O26">
     <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I19 I22">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I20 I22">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L8:L19 F8:F19 F22 L21:L22">
-    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
